--- a/data/trans_camb/P32A-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P32A-Provincia-trans_camb.xlsx
@@ -675,29 +675,29 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.396303842810174</v>
+        <v>4.604085689239641</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.49515081937165</v>
+        <v>-2.687431485144498</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.920944316238341</v>
+        <v>-5.812739584331978</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.069597097942894</v>
+        <v>1.108296261812357</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.8909997807970731</v>
+        <v>0.8821027189795806</v>
       </c>
       <c r="H5" s="5" t="inlineStr"/>
       <c r="I5" s="5" t="n">
-        <v>3.758304519313561</v>
+        <v>3.86793434635777</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.5935938808486639</v>
+        <v>-0.6711999067510206</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-4.047759532422255</v>
+        <v>-3.951521788985469</v>
       </c>
     </row>
     <row r="6">
@@ -708,29 +708,29 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.41099684481308</v>
+        <v>15.40128355373469</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.307127522133054</v>
+        <v>6.468314163095261</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7376874218038855</v>
+        <v>0.9277453359796063</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.43231259921051</v>
+        <v>12.4662341779509</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>11.10300545002858</v>
+        <v>9.880371628852176</v>
       </c>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="n">
-        <v>12.37256616022228</v>
+        <v>12.06775327773715</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>5.901337299641688</v>
+        <v>5.990909045283798</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2816751950514492</v>
+        <v>0.522626992419253</v>
       </c>
     </row>
     <row r="7">
@@ -778,20 +778,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.3630153077520373</v>
+        <v>0.5884120848784747</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.6315624165975796</v>
-      </c>
-      <c r="E8" s="6" t="inlineStr"/>
+        <v>-0.5540445102962606</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>0.7061365494942831</v>
+        <v>0.8279993483180276</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.36359173285101</v>
+        <v>-0.2983031640200424</v>
       </c>
       <c r="K8" s="6" t="inlineStr"/>
     </row>
@@ -803,20 +805,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>13.42633075780215</v>
+        <v>10.39260553227822</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.30864679043095</v>
-      </c>
-      <c r="E9" s="6" t="inlineStr"/>
+        <v>4.403645426226212</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>2.579893231254968</v>
+      </c>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>13.35738743129204</v>
+        <v>13.1846614202053</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>5.571746999801612</v>
+        <v>6.443813155823352</v>
       </c>
       <c r="K9" s="6" t="inlineStr"/>
     </row>
@@ -838,7 +842,7 @@
         <v>0.1675373156716599</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-1.74663780253183</v>
+        <v>-1.746637802531829</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.6794371007524233</v>
@@ -867,13 +871,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.354659307688167</v>
+        <v>-3.365168150345175</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.63002241011183</v>
+        <v>-2.834301455693718</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.194128141290419</v>
+        <v>-4.038569174547606</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>0</v>
@@ -883,13 +887,13 @@
       </c>
       <c r="H11" s="5" t="inlineStr"/>
       <c r="I11" s="5" t="n">
-        <v>-2.784661885516902</v>
+        <v>-2.764193676995366</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.77660076179806</v>
+        <v>-1.927586126631837</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-3.180964143415866</v>
+        <v>-3.206860494463815</v>
       </c>
     </row>
     <row r="12">
@@ -900,29 +904,29 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.941013873636294</v>
+        <v>1.797817466692307</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.047727228356016</v>
+        <v>2.636352702320131</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2651615822486545</v>
+        <v>0.2640446378563836</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.48218771714061</v>
+        <v>3.750253164054202</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.393652174750151</v>
+        <v>5.454902814514595</v>
       </c>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="n">
-        <v>1.207954992459653</v>
+        <v>1.184836377473175</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.521871686567209</v>
+        <v>2.672326550259102</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05947088610812435</v>
+        <v>0.369503515443444</v>
       </c>
     </row>
     <row r="13">
@@ -939,7 +943,7 @@
         <v>0.07311478033216696</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.7622483310061519</v>
+        <v>-0.7622483310061516</v>
       </c>
       <c r="F13" s="6" t="inlineStr">
         <is>
@@ -959,7 +963,7 @@
         <v>0.1958246096437257</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.784659445970772</v>
+        <v>-0.7846594459707721</v>
       </c>
     </row>
     <row r="14">
@@ -970,20 +974,20 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-1</v>
+        <v>-0.9231420373900938</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.7331497095674134</v>
+        <v>-0.7756230076780328</v>
       </c>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="inlineStr"/>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>-0.9164031603460866</v>
+        <v>-0.9087814789386525</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6566700584058186</v>
+        <v>-0.7142636812686424</v>
       </c>
       <c r="K14" s="6" t="inlineStr"/>
     </row>
@@ -995,20 +999,20 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>4.232575631006521</v>
+        <v>4.256227719230307</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>3.5439433920742</v>
+        <v>2.991524217551771</v>
       </c>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>2.078776704395819</v>
+        <v>2.4347890041024</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>4.836755945468894</v>
+        <v>3.761776118365392</v>
       </c>
       <c r="K15" s="6" t="inlineStr"/>
     </row>
@@ -1059,13 +1063,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.849632291049715</v>
+        <v>-1.701237169164192</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.788179141535841</v>
+        <v>-1.65190163106274</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.356843701401726</v>
+        <v>1.22853683921746</v>
       </c>
       <c r="F17" s="5" t="inlineStr"/>
       <c r="G17" s="5" t="inlineStr"/>
@@ -1073,13 +1077,13 @@
         <v>0</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.156201491150702</v>
+        <v>-1.223234393993004</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.184094572300803</v>
+        <v>-1.253291136880456</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.116448521138492</v>
+        <v>1.090483187400929</v>
       </c>
     </row>
     <row r="18">
@@ -1090,27 +1094,27 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9355095569213984</v>
+        <v>0.9348552382918972</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8450301171037647</v>
+        <v>0.8423578908501236</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.67349049103331</v>
+        <v>6.552304389849945</v>
       </c>
       <c r="F18" s="5" t="inlineStr"/>
       <c r="G18" s="5" t="inlineStr"/>
       <c r="H18" s="5" t="n">
-        <v>4.503724330052858</v>
+        <v>3.620530813553414</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.5804465821072903</v>
+        <v>0.5764980115289328</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5291448651882762</v>
+        <v>0.5267654502137832</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.89870889247172</v>
+        <v>4.881444901430918</v>
       </c>
     </row>
     <row r="19">
@@ -1198,7 +1202,7 @@
         <v>-0.280862805342222</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.380565713387517</v>
+        <v>0.3805657133875168</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-0.7055016847126407</v>
@@ -1227,31 +1231,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.347703564741488</v>
+        <v>-1.511415854419965</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.650584137000851</v>
+        <v>-1.915019792721077</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.232355158464417</v>
+        <v>-1.25232436376585</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.567998748857806</v>
+        <v>-3.502962420937261</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.102142883611448</v>
+        <v>-4.112960213610815</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.395843764174977</v>
+        <v>-1.845458461431256</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.30524461858959</v>
+        <v>-1.245043949323485</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.571923967866051</v>
+        <v>-1.554046395438714</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.8306043288738485</v>
+        <v>-0.9216259839728933</v>
       </c>
     </row>
     <row r="24">
@@ -1262,13 +1266,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.328657056060178</v>
+        <v>2.033845056835522</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.621536680790973</v>
+        <v>1.338432229065213</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.239171557068359</v>
+        <v>2.278871174163673</v>
       </c>
       <c r="F24" s="5" t="n">
         <v>0</v>
@@ -1277,16 +1281,16 @@
         <v>0</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.47349955844468</v>
+        <v>2.264987341302124</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.129308852895887</v>
+        <v>1.386061789831065</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.6465104970591485</v>
+        <v>0.6653044261187208</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.854314625326117</v>
+        <v>1.78753454086709</v>
       </c>
     </row>
     <row r="25">
@@ -1303,7 +1307,7 @@
         <v>-0.3409348529624924</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.4619626133059712</v>
+        <v>0.4619626133059709</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-1</v>
@@ -1340,7 +1344,7 @@
       <c r="I26" s="6" t="inlineStr"/>
       <c r="J26" s="6" t="inlineStr"/>
       <c r="K26" s="6" t="n">
-        <v>-0.7162296101502937</v>
+        <v>-0.7257929616997316</v>
       </c>
     </row>
     <row r="27">
@@ -1387,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>4.32873656001445</v>
+        <v>4.328736560014451</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>2.686982683679257</v>
@@ -1396,7 +1400,7 @@
         <v>1.599646137275467</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.422694123036375</v>
+        <v>0.4226941230363752</v>
       </c>
     </row>
     <row r="29">
@@ -1407,13 +1411,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.2173825694300884</v>
+        <v>-0.4259347196930616</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.8316396829545193</v>
+        <v>-0.9024728039318048</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-5.56598977980638</v>
+        <v>-5.685789385688665</v>
       </c>
       <c r="F29" s="5" t="n">
         <v>0</v>
@@ -1423,13 +1427,13 @@
         <v>0</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.2837869001431687</v>
+        <v>0.2183672219026219</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.5054548626200861</v>
+        <v>-0.5077381464826947</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-1.26542535091019</v>
+        <v>-1.247550515002759</v>
       </c>
     </row>
     <row r="30">
@@ -1440,29 +1444,29 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>8.075753603065202</v>
+        <v>7.701567283741848</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>7.404232773902844</v>
+        <v>7.503704638715336</v>
       </c>
       <c r="E30" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>8.439096078677492</v>
+        <v>8.595823331427559</v>
       </c>
       <c r="G30" s="5" t="inlineStr"/>
       <c r="H30" s="5" t="n">
-        <v>22.65955634043678</v>
+        <v>20.21144240837146</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>6.403078077255644</v>
+        <v>6.231251417037785</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>5.979156241967272</v>
+        <v>5.124467478411149</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>4.285983585894344</v>
+        <v>4.384895574887635</v>
       </c>
     </row>
     <row r="31">
@@ -1499,7 +1503,7 @@
         <v>2.576276092366622</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.680761037198667</v>
+        <v>0.6807610371986672</v>
       </c>
     </row>
     <row r="32">
@@ -1583,13 +1587,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-3.543523349832812</v>
+        <v>-3.531353067426916</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.083855270690345</v>
+        <v>-2.102524426010002</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.7261461986592647</v>
+        <v>-1.02047098158252</v>
       </c>
       <c r="F35" s="5" t="n">
         <v>0</v>
@@ -1598,16 +1602,16 @@
         <v>0</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>0.5581450400035186</v>
+        <v>0.557485496717549</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-1.35242255276896</v>
+        <v>-1.711791381259298</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.736659721671164</v>
+        <v>-0.570582846039999</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>0.03696489909047457</v>
+        <v>0.1119807259337917</v>
       </c>
     </row>
     <row r="36">
@@ -1618,31 +1622,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>1.157484336096051</v>
+        <v>1.13469832876401</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>2.898499429188352</v>
+        <v>2.442527344972912</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>4.906420020621555</v>
+        <v>4.600002525754248</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>5.337241851784472</v>
+        <v>6.173562683870821</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>6.891822746251925</v>
+        <v>7.216522751325837</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>6.402643089175027</v>
+        <v>6.32151330576879</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>1.525244683431957</v>
+        <v>1.509519132248038</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>3.07364234014395</v>
+        <v>3.026151092020267</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>4.201127954427657</v>
+        <v>4.233885135070632</v>
       </c>
     </row>
     <row r="37">
@@ -1738,7 +1742,7 @@
         <v>3.177864523162286</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1.922039802515625</v>
+        <v>1.922039802515626</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>0.4742137435738444</v>
@@ -1756,7 +1760,7 @@
         <v>2.514268816905782</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>3.313385770387583</v>
+        <v>3.313385770387584</v>
       </c>
     </row>
     <row r="41">
@@ -1767,31 +1771,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.09607231210159596</v>
+        <v>0.1059088467722495</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>1.209849703766934</v>
+        <v>1.106158163778725</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>0.2486970603596416</v>
+        <v>0.4044405129107669</v>
       </c>
       <c r="F41" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>0.3990525275572648</v>
+        <v>0.4354952708013453</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>2.689634188464581</v>
+        <v>2.934465100324071</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>0.1545898474104637</v>
+        <v>0.1471847291302299</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>1.111680422198091</v>
+        <v>1.131560701736411</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>1.673843524389319</v>
+        <v>1.718330059693238</v>
       </c>
     </row>
     <row r="42">
@@ -1802,31 +1806,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>4.227846392520802</v>
+        <v>4.117135790721221</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>5.596317997616147</v>
+        <v>5.628485013251789</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>4.085074361375416</v>
+        <v>4.186725763954562</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2.414778084894985</v>
+        <v>2.345095340899987</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>4.120877557884259</v>
+        <v>4.048270036846461</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>10.26898474746072</v>
+        <v>10.05583754359936</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>2.728846659398312</v>
+        <v>2.797953003303818</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>4.282287478225047</v>
+        <v>4.174872025492988</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>5.425382454064436</v>
+        <v>5.531529935029335</v>
       </c>
     </row>
     <row r="43">
@@ -1843,7 +1847,7 @@
         <v>5.019726348037844</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>3.03603686322799</v>
+        <v>3.036036863227991</v>
       </c>
       <c r="F43" s="6" t="inlineStr">
         <is>
@@ -1867,7 +1871,7 @@
         <v>5.784250883946218</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>7.622675205750443</v>
+        <v>7.622675205750444</v>
       </c>
     </row>
     <row r="44">
@@ -1878,25 +1882,25 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.4388172797322882</v>
+        <v>-0.5129009777612954</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.2133260616932056</v>
+        <v>0.3494550803720599</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.2783118377919904</v>
+        <v>-0.3531504477643554</v>
       </c>
       <c r="F44" s="6" t="inlineStr"/>
       <c r="G44" s="6" t="inlineStr"/>
       <c r="H44" s="6" t="inlineStr"/>
       <c r="I44" s="6" t="n">
-        <v>-0.4493583144531037</v>
+        <v>-0.5884239297357556</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.3373832984524557</v>
+        <v>0.5437332848796899</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>1.115709698442714</v>
+        <v>0.7161199262576482</v>
       </c>
     </row>
     <row r="45">
@@ -1934,7 +1938,7 @@
         <v>-0.1054010216715063</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>0.448174546047408</v>
+        <v>0.4481745460474081</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>-0.8482682727762807</v>
@@ -1963,31 +1967,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-0.2512391427262333</v>
+        <v>-0.1088913594196999</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.8510083209279004</v>
+        <v>-0.8571641796711975</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-0.4894008679059559</v>
+        <v>-0.5108204993939578</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-2.963576459580908</v>
+        <v>-2.788612241150988</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-1.327300201824317</v>
+        <v>-0.9224053351229762</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-1.708014344389451</v>
+        <v>-1.668386531205315</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-0.4822393056458328</v>
+        <v>-0.5014648203834722</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-0.513452454613161</v>
+        <v>-0.6320938021339776</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-0.5512429237497823</v>
+        <v>-0.6782620334634736</v>
       </c>
     </row>
     <row r="48">
@@ -1998,31 +2002,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>2.964287602582365</v>
+        <v>3.217207641921086</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.8418155260379636</v>
+        <v>0.8246959382592499</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>2.039203894545051</v>
+        <v>2.088632490891445</v>
       </c>
       <c r="F48" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>2.695891152636248</v>
+        <v>2.69207699931001</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>1.978780123580046</v>
+        <v>2.149464775309756</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>1.898032459334424</v>
+        <v>1.833688022735453</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>1.170796447761657</v>
+        <v>1.047344321685148</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>1.466669681169999</v>
+        <v>1.465753563607837</v>
       </c>
     </row>
     <row r="49">
@@ -2039,7 +2043,7 @@
         <v>-0.2044248587859434</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.8692327345054887</v>
+        <v>0.869232734505489</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>-1</v>
@@ -2074,13 +2078,13 @@
       <c r="G50" s="6" t="inlineStr"/>
       <c r="H50" s="6" t="inlineStr"/>
       <c r="I50" s="6" t="n">
-        <v>-0.7120454469915022</v>
+        <v>-0.6925485292613245</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.6732848593832264</v>
+        <v>-0.7009771020344752</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.77209970431167</v>
+        <v>-0.7948637914022229</v>
       </c>
     </row>
     <row r="51">
@@ -2097,13 +2101,13 @@
       <c r="G51" s="6" t="inlineStr"/>
       <c r="H51" s="6" t="inlineStr"/>
       <c r="I51" s="6" t="n">
-        <v>6.97605401911968</v>
+        <v>7.749658834502648</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>5.233623923317916</v>
+        <v>3.77743763788467</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>5.597743153271532</v>
+        <v>6.250587303178043</v>
       </c>
     </row>
     <row r="52">
@@ -2153,31 +2157,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>0.4969847840848588</v>
+        <v>0.6184634582791128</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>0.1818625859122961</v>
+        <v>0.1619709325519185</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>0.03517029387135181</v>
+        <v>0.01624438788596668</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-0.1268904291654863</v>
+        <v>-0.08939885647097585</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>0.312515171117039</v>
+        <v>0.2425565688743528</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>0.8303070640328288</v>
+        <v>0.8719679973120484</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>0.52838334863725</v>
+        <v>0.5190200502882534</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>0.3181557908466064</v>
+        <v>0.3316392542851195</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>0.5384612315711145</v>
+        <v>0.4999287764351781</v>
       </c>
     </row>
     <row r="54">
@@ -2188,31 +2192,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>2.307720337749625</v>
+        <v>2.35642338735492</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>1.728094516179165</v>
+        <v>1.805755679606402</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>1.562012265994049</v>
+        <v>1.492296971000398</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>1.365949403506894</v>
+        <v>1.301447816007209</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>1.93912322448331</v>
+        <v>1.819184489940714</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>3.092794066363009</v>
+        <v>3.09545748801008</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>1.792365933281712</v>
+        <v>1.826860705615061</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>1.522644548747485</v>
+        <v>1.525526137611495</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>1.760678142407688</v>
+        <v>1.831238353393478</v>
       </c>
     </row>
     <row r="55">
@@ -2247,7 +2251,7 @@
         <v>1.122980325728489</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>1.332165010155839</v>
+        <v>1.33216501015584</v>
       </c>
     </row>
     <row r="56">
@@ -2258,31 +2262,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.2997451355020171</v>
+        <v>0.3686067876086965</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.1097467138811251</v>
+        <v>0.05785380498519528</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.02778485708263647</v>
+        <v>-0.01191325768820395</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.4858974622956539</v>
+        <v>-0.473545214820834</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.2242765008084023</v>
+        <v>-0.1574036507996301</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.86384595101851</v>
+        <v>0.8148553214317126</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.4832719035198332</v>
+        <v>0.4206763885905915</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.2386375395015349</v>
+        <v>0.236791408777998</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.4274991669444149</v>
+        <v>0.4115223351598303</v>
       </c>
     </row>
     <row r="57">
@@ -2293,29 +2297,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>2.924954832389211</v>
+        <v>3.201627922187524</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>2.363952291966478</v>
+        <v>2.316777117385786</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>2.062035994183346</v>
-      </c>
-      <c r="F57" s="6" t="inlineStr"/>
+        <v>1.975584385676098</v>
+      </c>
+      <c r="F57" s="6" t="n">
+        <v>11.04217007475562</v>
+      </c>
       <c r="G57" s="6" t="n">
-        <v>16.69363738029224</v>
+        <v>14.11767551815468</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>23.97316981436511</v>
+        <v>25.51215864053085</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>3.163358538672834</v>
+        <v>3.002615024258994</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>2.633391339893124</v>
+        <v>2.486522078841271</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>2.86362361582983</v>
+        <v>2.916067352069692</v>
       </c>
     </row>
     <row r="58">
